--- a/docs/backlog_HelpEnterprising.xlsx
+++ b/docs/backlog_HelpEnterprising.xlsx
@@ -3,17 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Burndown - Sprint 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Burndown - Sprint 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Burndown - Sprint 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Burndown - Sprint 4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Backlog do Projeto</t>
   </si>
@@ -37,13 +41,49 @@
   </si>
   <si>
     <t>Outros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burndown SPRINT 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 01 (3 Pontos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 02 (6 Pontos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 03 (12 Pontos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 04 (15 Pontos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burndown SPRINT 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 01 (X Pontos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 02 (X Pontos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 03 (X Pontos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 04 (X Pontos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burndown SPRINT 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burndown SPRINT 04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -99,6 +139,19 @@
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="1"/>
+      <sz val="18.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="16.000000"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -120,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -173,11 +226,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,6 +296,18 @@
     </xf>
     <xf fontId="7" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,4 +1061,540 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="14.421875"/>
+    <col customWidth="1" min="7" max="7" width="14.8515625"/>
+    <col customWidth="1" min="11" max="11" width="17.28125"/>
+    <col customWidth="1" min="14" max="14" width="16.28125"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="23.25">
+      <c r="F2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" ht="21">
+      <c r="B28" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="F28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="J28" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="M28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="31" ht="14.25"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="14.421875"/>
+    <col customWidth="1" min="7" max="7" width="14.8515625"/>
+    <col customWidth="1" min="11" max="11" width="17.28125"/>
+    <col customWidth="1" min="14" max="14" width="16.28125"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="23.25">
+      <c r="F2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" ht="21">
+      <c r="B28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="F28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="J28" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="M28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="31" ht="14.25"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="14.421875"/>
+    <col customWidth="1" min="7" max="7" width="14.8515625"/>
+    <col customWidth="1" min="11" max="11" width="17.28125"/>
+    <col customWidth="1" min="14" max="14" width="16.28125"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="23.25">
+      <c r="F2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" ht="21">
+      <c r="B28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="F28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="K28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="31" ht="14.25"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="14.421875"/>
+    <col customWidth="1" min="7" max="7" width="14.8515625"/>
+    <col customWidth="1" min="11" max="11" width="17.28125"/>
+    <col customWidth="1" min="14" max="14" width="16.28125"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="23.25">
+      <c r="F2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" ht="21">
+      <c r="B28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="F28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="K28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="31" ht="14.25"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/docs/backlog_HelpEnterprising.xlsx
+++ b/docs/backlog_HelpEnterprising.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,12 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">Backlog do Projeto</t>
   </si>
   <si>
-    <t>Aplicação</t>
+    <t xml:space="preserve">Área Incial:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento do Site</t>
   </si>
   <si>
     <t xml:space="preserve">Relevância </t>
@@ -31,22 +34,142 @@
     <t>Fibonacci</t>
   </si>
   <si>
+    <t xml:space="preserve">Navbar no site com as informações necessárias para cada usuário;</t>
+  </si>
+  <si>
+    <t>IMPORTANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aba Feedback do usuário sobre o site;</t>
+  </si>
+  <si>
+    <t>DESEJÁVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aba Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conter uma landing page vendendo a solução;</t>
+  </si>
+  <si>
     <t xml:space="preserve">HELP ENTERPRISING</t>
   </si>
   <si>
+    <t xml:space="preserve">Conter um botão redirecionando para a aba cadastro;</t>
+  </si>
+  <si>
+    <t>ESSENCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aba Sobre nós</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conter informações sobre mim;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contar um pouco da minha história.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aba de Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conter um formulário com usuário e senha;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conter validações nos campos, para o usuário digitar corretamente;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irá aparecer uma mensagem de erro caso o usuário não esteja cadastrado no banco;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conter um botão para entrar;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conter um botão para a aba de cadastro;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aba de Cadastro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conter um formulário para efetuar o cadastro;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conter um botão de realizar o cadastro e redirecionar para a aba login;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Área Logada:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtro para o usuário escolher o assunto;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aba notícias para o usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conter um feed com cards e suas notícias;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aba de editar perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conter um formulário com as informações dos usuários;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conter um botão atualizar informações;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aba para o usuário fazer um post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conter um formulário para o usuário escrever o título e algo relevante;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irá aparecer uma mensagem de erro caso o usuário queira fazer um post em branco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conter um botão para ele fazer o post;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Banco de Dados</t>
   </si>
   <si>
-    <t>Desenvolvimento</t>
+    <t xml:space="preserve">Fazer a conexão com o site;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolver a modelagem lógica;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolver entidades, tuplas, relacionamentos e atributos;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banco de dados com relacionamentos através de FK'S;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banco de dados inserir, atualizar e selecionar informações gravadas nele;</t>
+  </si>
+  <si>
+    <t>Servidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazer a conexão com do banco de dados;</t>
   </si>
   <si>
     <t>Outros</t>
   </si>
   <si>
-    <t xml:space="preserve">Burndown SPRINT 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia 01 (3 Pontos)</t>
+    <t xml:space="preserve">Site intuitivo para o usuário;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface agradável para o usuário;</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burndown SPRINT 01 (Pontuação Fictícia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 01 (3 Pontos) </t>
   </si>
   <si>
     <t xml:space="preserve">Dia 02 (6 Pontos)</t>
@@ -58,9 +181,30 @@
     <t xml:space="preserve">Dia 04 (15 Pontos)</t>
   </si>
   <si>
+    <t>FEITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEITO PARCIALMENTE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Burndown SPRINT 02</t>
   </si>
   <si>
+    <t xml:space="preserve">Dia 01 (13 Pontos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 02 (26 Pontos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 03 (34 Pontos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 04 (42 Pontos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burndown SPRINT 03</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dia 01 (X Pontos)</t>
   </si>
   <si>
@@ -68,12 +212,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dia 03 (X Pontos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia 04 (X Pontos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burndown SPRINT 03</t>
   </si>
   <si>
     <t xml:space="preserve">Burndown SPRINT 04</t>
@@ -83,10 +221,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1" tint="0"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -100,7 +244,7 @@
     <font>
       <name val="Calibri"/>
       <b/>
-      <color theme="9" tint="0.39997558519241921"/>
+      <color theme="1" tint="0"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -109,20 +253,6 @@
       <b/>
       <color theme="1"/>
       <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color indexed="2"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="12.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,6 +273,20 @@
       <name val="Calibri"/>
       <b/>
       <color theme="1"/>
+      <sz val="12.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color indexed="2"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="1"/>
       <sz val="18.000000"/>
       <scheme val="minor"/>
     </font>
@@ -150,6 +294,13 @@
       <name val="Calibri"/>
       <color theme="1"/>
       <sz val="16.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="1"/>
+      <sz val="14.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -259,55 +410,72 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf fontId="6" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="7" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="8" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="8" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -328,11 +496,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>485774</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1762124" cy="607370"/>
+    <xdr:ext cx="1762123" cy="607369"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="" hidden="0"/>
@@ -346,8 +514,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="485775" y="76200"/>
-          <a:ext cx="1762124" cy="607370"/>
+          <a:off x="485775" y="76199"/>
+          <a:ext cx="1762123" cy="607369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -356,6 +524,110 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>583405</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>804974</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="" hidden="0"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="583405" y="904874"/>
+          <a:ext cx="9401286" cy="4000500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="43200" h="43200" fill="none" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="43200"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="583" y="38850"/>
+                <a:pt x="1167" y="34500"/>
+                <a:pt x="2461" y="32142"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3756" y="29785"/>
+                <a:pt x="5544" y="30642"/>
+                <a:pt x="7768" y="29057"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="9993" y="27471"/>
+                <a:pt x="12391" y="24835"/>
+                <a:pt x="15811" y="22628"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19230" y="20421"/>
+                <a:pt x="25157" y="16735"/>
+                <a:pt x="28285" y="15814"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31413" y="14892"/>
+                <a:pt x="32297" y="19242"/>
+                <a:pt x="34577" y="17100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="36856" y="14957"/>
+                <a:pt x="40540" y="5807"/>
+                <a:pt x="41963" y="2957"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="43385" y="107"/>
+                <a:pt x="43248" y="53"/>
+                <a:pt x="43111" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -858,202 +1130,504 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="12.7109375"/>
-    <col customWidth="1" min="5" max="5" width="17.00390625"/>
-    <col customWidth="1" min="6" max="6" width="133.28125"/>
-    <col customWidth="1" min="7" max="7" width="29.7109375"/>
-    <col customWidth="1" min="8" max="8" width="13.421875"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="12.7109375"/>
+    <col customWidth="1" min="5" max="5" style="1" width="31.28125"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="133.28125"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" width="29.7109375"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" style="2" width="13.421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.25">
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25">
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" ht="16.5">
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5">
+      <c r="E5" s="8"/>
+      <c r="F5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5">
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="14">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="E9" s="6"/>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="10">
         <v>5</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="14">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="14">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="10">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="14">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="E14" s="6"/>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="14">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="14">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="14">
+        <v>13</v>
+      </c>
+      <c r="I17"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="8"/>
+      <c r="E18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="8"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="12">
+        <v>3</v>
+      </c>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="14">
+        <v>13</v>
+      </c>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="14">
+        <v>21</v>
+      </c>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="E22" s="6"/>
-      <c r="F22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="14">
+        <v>13</v>
+      </c>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="14">
+        <v>13</v>
+      </c>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="14">
+        <v>13</v>
+      </c>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="10">
+        <v>5</v>
+      </c>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="14">
+        <v>13</v>
+      </c>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="14">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="E30" s="8"/>
+      <c r="F30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="E31" s="8"/>
+      <c r="F31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="E32" s="8"/>
+      <c r="F32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="E33" s="8"/>
+      <c r="F33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="E34" s="8"/>
+      <c r="F34" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="E35" s="8"/>
+      <c r="F35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="E36" s="8"/>
+      <c r="F36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="E37" s="8"/>
+      <c r="F37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="E38" s="8"/>
+      <c r="F38" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="E39" s="1"/>
+      <c r="G39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="8">
+        <f>SUM(H4,H7,H6,H8,H9,H10,H12,H11,H13,H14,H15,H16,H17,H20,H21,H22,H23,H24,H25,H26,H28,H29,H30,H31,H32,H34,H35,H37)</f>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="E40" s="1"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="E44" s="1"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="E45" s="1"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="E46" s="1"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="E47" s="1"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="E48" s="1"/>
+      <c r="H48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -1072,129 +1646,154 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="14.421875"/>
-    <col customWidth="1" min="7" max="7" width="14.8515625"/>
-    <col customWidth="1" min="11" max="11" width="17.28125"/>
-    <col customWidth="1" min="14" max="14" width="16.28125"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="14.421875"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" width="14.8515625"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="17.28125"/>
+    <col bestFit="1" customWidth="1" min="14" max="14" width="16.28125"/>
   </cols>
   <sheetData>
     <row r="2" ht="23.25">
-      <c r="F2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="F2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="14"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="B7" s="14"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="B8" s="14"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="B9" s="14"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="B10" s="14"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="B11" s="14"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="B12" s="14"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="B13" s="14"/>
+      <c r="B13" s="19"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="B14" s="14"/>
+      <c r="B14" s="19"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="B15" s="14"/>
+      <c r="B15" s="19"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="B16" s="14"/>
+      <c r="B16" s="19"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="B17" s="14"/>
+      <c r="B17" s="19"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="14"/>
+      <c r="B18" s="19"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="B19" s="14"/>
+      <c r="B19" s="19"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="B20" s="14"/>
+      <c r="B20" s="19"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="14"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="14"/>
+      <c r="B22" s="19"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="B23" s="14"/>
+      <c r="B23" s="19"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="14"/>
+      <c r="B24" s="19"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="B25" s="14"/>
+      <c r="B25" s="19"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="B26" s="14"/>
+      <c r="B26" s="19"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" ht="21">
-      <c r="B28" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="F28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="J28" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="18"/>
-      <c r="M28" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="18"/>
+      <c r="B28" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="F28" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="J28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="M28" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" ht="18.75">
+      <c r="B29" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="F29" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="J29" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="24"/>
+      <c r="M29" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="24"/>
     </row>
     <row r="31" ht="14.25"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F2:I2"/>
+  <mergeCells count="9">
+    <mergeCell ref="F2:K2"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="M28:N28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1207,115 +1806,115 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="14.421875"/>
-    <col customWidth="1" min="7" max="7" width="14.8515625"/>
-    <col customWidth="1" min="11" max="11" width="17.28125"/>
-    <col customWidth="1" min="14" max="14" width="16.28125"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="14.421875"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" width="14.8515625"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="17.28125"/>
+    <col bestFit="1" customWidth="1" min="14" max="14" width="16.28125"/>
   </cols>
   <sheetData>
     <row r="2" ht="23.25">
-      <c r="F2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="F2" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="14"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="B7" s="14"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="B8" s="14"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="B9" s="14"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="B10" s="14"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="B11" s="14"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="B12" s="14"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="B13" s="14"/>
+      <c r="B13" s="19"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="B14" s="14"/>
+      <c r="B14" s="19"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="B15" s="14"/>
+      <c r="B15" s="19"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="B16" s="14"/>
+      <c r="B16" s="19"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="B17" s="14"/>
+      <c r="B17" s="19"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="14"/>
+      <c r="B18" s="19"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="B19" s="14"/>
+      <c r="B19" s="19"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="B20" s="14"/>
+      <c r="B20" s="19"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="14"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="14"/>
+      <c r="B22" s="19"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="B23" s="14"/>
+      <c r="B23" s="19"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="14"/>
+      <c r="B24" s="19"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="B25" s="14"/>
+      <c r="B25" s="19"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="B26" s="14"/>
+      <c r="B26" s="19"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" ht="21">
-      <c r="B28" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="F28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="J28" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="18"/>
-      <c r="M28" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="18"/>
+      <c r="B28" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="F28" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="J28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="M28" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" s="22"/>
     </row>
     <row r="31" ht="14.25"/>
   </sheetData>
@@ -1342,113 +1941,113 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="14.421875"/>
-    <col customWidth="1" min="7" max="7" width="14.8515625"/>
-    <col customWidth="1" min="11" max="11" width="17.28125"/>
-    <col customWidth="1" min="14" max="14" width="16.28125"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="14.421875"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" width="14.8515625"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="17.28125"/>
+    <col bestFit="1" customWidth="1" min="14" max="14" width="16.28125"/>
   </cols>
   <sheetData>
     <row r="2" ht="23.25">
-      <c r="F2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="F2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="14"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="B7" s="14"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="B8" s="14"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="B9" s="14"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="B10" s="14"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="B11" s="14"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="B12" s="14"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="B13" s="14"/>
+      <c r="B13" s="19"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="B14" s="14"/>
+      <c r="B14" s="19"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="B15" s="14"/>
+      <c r="B15" s="19"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="B16" s="14"/>
+      <c r="B16" s="19"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="B17" s="14"/>
+      <c r="B17" s="19"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="14"/>
+      <c r="B18" s="19"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="B19" s="14"/>
+      <c r="B19" s="19"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="B20" s="14"/>
+      <c r="B20" s="19"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="14"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="14"/>
+      <c r="B22" s="19"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="B23" s="14"/>
+      <c r="B23" s="19"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="14"/>
+      <c r="B24" s="19"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="B25" s="14"/>
+      <c r="B25" s="19"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="B26" s="14"/>
+      <c r="B26" s="19"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" ht="21">
-      <c r="B28" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="F28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="K28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
+      <c r="B28" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="F28" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="K28" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="31" ht="14.25"/>
   </sheetData>
@@ -1475,113 +2074,113 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="14.421875"/>
-    <col customWidth="1" min="7" max="7" width="14.8515625"/>
-    <col customWidth="1" min="11" max="11" width="17.28125"/>
-    <col customWidth="1" min="14" max="14" width="16.28125"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="14.421875"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" width="14.8515625"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="17.28125"/>
+    <col bestFit="1" customWidth="1" min="14" max="14" width="16.28125"/>
   </cols>
   <sheetData>
     <row r="2" ht="23.25">
-      <c r="F2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="F2" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="14"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="B7" s="14"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="B8" s="14"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="B9" s="14"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="B10" s="14"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="B11" s="14"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="B12" s="14"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="B13" s="14"/>
+      <c r="B13" s="19"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="B14" s="14"/>
+      <c r="B14" s="19"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="B15" s="14"/>
+      <c r="B15" s="19"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="B16" s="14"/>
+      <c r="B16" s="19"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="B17" s="14"/>
+      <c r="B17" s="19"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="14"/>
+      <c r="B18" s="19"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="B19" s="14"/>
+      <c r="B19" s="19"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="B20" s="14"/>
+      <c r="B20" s="19"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="14"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="14"/>
+      <c r="B22" s="19"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="B23" s="14"/>
+      <c r="B23" s="19"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="14"/>
+      <c r="B24" s="19"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="B25" s="14"/>
+      <c r="B25" s="19"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="B26" s="14"/>
+      <c r="B26" s="19"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" ht="21">
-      <c r="B28" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="F28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="K28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
+      <c r="B28" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="F28" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="K28" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="31" ht="14.25"/>
   </sheetData>

--- a/docs/backlog_HelpEnterprising.xlsx
+++ b/docs/backlog_HelpEnterprising.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">Backlog do Projeto</t>
   </si>
@@ -109,13 +109,16 @@
     <t xml:space="preserve">Conter um feed com cards e suas notícias;</t>
   </si>
   <si>
-    <t xml:space="preserve">Aba de editar perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conter um formulário com as informações dos usuários;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conter um botão atualizar informações;</t>
+    <t xml:space="preserve">Aba cadastro de empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conter um formulário para o cadastro de sua empresa;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aba para Ajuda/Dúvida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conter um formuláio para o usuário enviar sua dúvida;</t>
   </si>
   <si>
     <t xml:space="preserve">Aba para o usuário fazer um post</t>
@@ -190,28 +193,22 @@
     <t xml:space="preserve">Burndown SPRINT 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Dia 01 (13 Pontos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia 02 (26 Pontos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia 03 (34 Pontos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia 04 (42 Pontos)</t>
+    <t xml:space="preserve">Dia 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 04 </t>
   </si>
   <si>
     <t xml:space="preserve">Burndown SPRINT 03</t>
   </si>
   <si>
-    <t xml:space="preserve">Dia 01 (X Pontos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia 02 (X Pontos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia 03 (X Pontos)</t>
+    <t xml:space="preserve">NÃO REALIZADO</t>
   </si>
   <si>
     <t xml:space="preserve">Burndown SPRINT 04</t>
@@ -410,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -440,9 +437,6 @@
     <xf fontId="5" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="6" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,6 +450,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="8" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,12 +467,6 @@
     </xf>
     <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,6 +588,303 @@
                 <a:pt x="43385" y="107"/>
                 <a:pt x="43248" y="53"/>
                 <a:pt x="43111" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>816880</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>159543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="" hidden="0"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="595312" y="940593"/>
+          <a:ext cx="9401286" cy="3981449"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="43200" h="43200" fill="none" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="43200"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="583" y="38850"/>
+                <a:pt x="1167" y="34500"/>
+                <a:pt x="2461" y="32142"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3756" y="29785"/>
+                <a:pt x="5544" y="30642"/>
+                <a:pt x="7768" y="29057"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="9993" y="27471"/>
+                <a:pt x="12391" y="24835"/>
+                <a:pt x="15811" y="22628"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19230" y="20421"/>
+                <a:pt x="25157" y="16735"/>
+                <a:pt x="28285" y="15814"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31413" y="14892"/>
+                <a:pt x="32297" y="19242"/>
+                <a:pt x="34577" y="17100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="36856" y="14957"/>
+                <a:pt x="40540" y="5807"/>
+                <a:pt x="41963" y="2957"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="43385" y="107"/>
+                <a:pt x="43248" y="53"/>
+                <a:pt x="43111" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>583405</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="" hidden="0"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="607218" y="952499"/>
+          <a:ext cx="8548687" cy="3940968"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="43200" h="43200" fill="none" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="43200"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1469" y="36652"/>
+                <a:pt x="2938" y="30105"/>
+                <a:pt x="6137" y="29235"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="9335" y="28364"/>
+                <a:pt x="13016" y="42851"/>
+                <a:pt x="19193" y="37979"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25370" y="33106"/>
+                <a:pt x="34285" y="16553"/>
+                <a:pt x="43200" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>74095</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="" hidden="0"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="571500" y="364551"/>
+          <a:ext cx="9765783" cy="4528917"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="43200" h="43200" fill="none" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="43200"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1343" y="38780"/>
+                <a:pt x="2686" y="34360"/>
+                <a:pt x="4266" y="34000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5846" y="33641"/>
+                <a:pt x="7812" y="39944"/>
+                <a:pt x="9480" y="41042"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11148" y="42140"/>
+                <a:pt x="12877" y="42405"/>
+                <a:pt x="14273" y="40587"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15668" y="38770"/>
+                <a:pt x="16450" y="32713"/>
+                <a:pt x="17854" y="30139"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19259" y="27565"/>
+                <a:pt x="21559" y="24063"/>
+                <a:pt x="22700" y="25142"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="23841" y="26221"/>
+                <a:pt x="21567" y="40247"/>
+                <a:pt x="24701" y="36612"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="27835" y="32978"/>
+                <a:pt x="38667" y="8939"/>
+                <a:pt x="41502" y="3336"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="44338" y="-2265"/>
+                <a:pt x="43025" y="365"/>
+                <a:pt x="41713" y="2996"/>
               </a:cubicBezTo>
             </a:path>
           </a:pathLst>
@@ -1131,7 +1419,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" customWidth="1" min="3" max="3" width="12.7109375"/>
-    <col customWidth="1" min="5" max="5" style="1" width="31.28125"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="31.28125"/>
     <col bestFit="1" customWidth="1" min="6" max="6" width="133.28125"/>
     <col bestFit="1" customWidth="1" min="7" max="7" width="29.7109375"/>
     <col bestFit="1" customWidth="1" min="8" max="8" style="2" width="13.421875"/>
@@ -1172,13 +1460,13 @@
     </row>
     <row r="5" ht="16.5">
       <c r="E5" s="8"/>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>3</v>
       </c>
     </row>
@@ -1186,7 +1474,7 @@
       <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -1197,18 +1485,18 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="12"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="14">
+      <c r="G7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13">
         <v>13</v>
       </c>
     </row>
@@ -1216,7 +1504,7 @@
       <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="10" t="s">
@@ -1228,7 +1516,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="E9" s="8"/>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -1242,31 +1530,31 @@
       <c r="E10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="14">
+      <c r="G10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="13">
         <v>21</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="E11" s="8"/>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="14">
+      <c r="G11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="E12" s="8"/>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -1278,19 +1566,19 @@
     </row>
     <row r="13" ht="14.25">
       <c r="E13" s="8"/>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="14">
+      <c r="G13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="13">
         <v>21</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="E14" s="8"/>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -1307,135 +1595,136 @@
       <c r="F15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="14">
+      <c r="G15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="13">
         <v>21</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="E16" s="8"/>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="14">
+      <c r="G16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="E17" s="8"/>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="14">
-        <v>13</v>
-      </c>
-      <c r="I17"/>
+      <c r="G17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="13">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="16"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="E19" s="15"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>3</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" ht="14.25">
       <c r="E20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="14">
-        <v>13</v>
-      </c>
-      <c r="I20" s="16"/>
+      <c r="G20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="13">
+        <v>13</v>
+      </c>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" ht="14.25">
       <c r="E21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="14">
+      <c r="G21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="13">
         <v>21</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="E22" s="8"/>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="14">
-        <v>13</v>
-      </c>
-      <c r="I22" s="16"/>
+      <c r="F22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="13">
+        <v>13</v>
+      </c>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" ht="14.25">
       <c r="E23" s="8"/>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="14">
-        <v>13</v>
-      </c>
-      <c r="I23" s="16"/>
+      <c r="G23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="13">
+        <v>13</v>
+      </c>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" ht="14.25">
       <c r="E24" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="14">
-        <v>13</v>
-      </c>
-      <c r="I24" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="13">
+        <v>13</v>
+      </c>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" ht="14.25">
       <c r="E25" s="8"/>
-      <c r="F25" s="11" t="s">
-        <v>35</v>
+      <c r="F25" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>6</v>
@@ -1443,69 +1732,69 @@
       <c r="H25" s="10">
         <v>5</v>
       </c>
-      <c r="I25" s="16"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" ht="14.25">
       <c r="E26" s="8"/>
-      <c r="F26" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="14">
-        <v>13</v>
-      </c>
-      <c r="I26" s="16"/>
+      <c r="F26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="13">
+        <v>13</v>
+      </c>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" ht="14.25">
       <c r="E27" s="8"/>
       <c r="F27" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
     </row>
     <row r="28" ht="14.25">
       <c r="E28" s="8"/>
-      <c r="F28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="14">
+      <c r="F28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="13">
         <v>21</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="E29" s="8"/>
-      <c r="F29" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="14">
+      <c r="F29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="E30" s="8"/>
-      <c r="F30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="14">
+      <c r="F30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>6</v>
@@ -1517,7 +1806,7 @@
     <row r="32" ht="14.25">
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>6</v>
@@ -1529,39 +1818,39 @@
     <row r="33" ht="14.25">
       <c r="E33" s="8"/>
       <c r="F33" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
     </row>
     <row r="34" ht="14.25">
       <c r="E34" s="8"/>
-      <c r="F34" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="14">
+      <c r="F34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="13">
         <v>21</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="E35" s="8"/>
-      <c r="F35" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="14">
+      <c r="F35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="13">
         <v>21</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="E36" s="8"/>
       <c r="F36" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
@@ -1569,7 +1858,7 @@
     <row r="37" ht="14.25">
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>6</v>
@@ -1580,20 +1869,20 @@
     </row>
     <row r="38" ht="14.25">
       <c r="E38" s="8"/>
-      <c r="F38" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="12" t="s">
+      <c r="F38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="E39" s="1"/>
       <c r="G39" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" s="8">
         <f>SUM(H4,H7,H6,H8,H9,H10,H12,H11,H13,H14,H15,H16,H17,H20,H21,H22,H23,H24,H25,H26,H28,H29,H30,H31,H32,H34,H35,H37)</f>
@@ -1654,7 +1943,7 @@
   <sheetData>
     <row r="2" ht="23.25">
       <c r="F2" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -1742,39 +2031,39 @@
     </row>
     <row r="28" ht="21">
       <c r="B28" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="22"/>
       <c r="F28" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G28" s="22"/>
       <c r="J28" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28" s="22"/>
       <c r="M28" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N28" s="22"/>
     </row>
     <row r="29" ht="18.75">
       <c r="B29" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="23"/>
-      <c r="F29" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="24"/>
-      <c r="J29" s="24" t="s">
+      <c r="F29" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="M29" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="N29" s="24"/>
+      <c r="G29" s="23"/>
+      <c r="J29" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="23"/>
+      <c r="M29" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="23"/>
     </row>
     <row r="31" ht="14.25"/>
   </sheetData>
@@ -1813,12 +2102,12 @@
   </cols>
   <sheetData>
     <row r="2" ht="23.25">
-      <c r="F2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="F2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="6" ht="14.25">
       <c r="B6" s="19"/>
@@ -1900,35 +2189,58 @@
     </row>
     <row r="28" ht="21">
       <c r="B28" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="22"/>
       <c r="F28" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G28" s="22"/>
       <c r="J28" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K28" s="22"/>
       <c r="M28" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N28" s="22"/>
+    </row>
+    <row r="29" ht="18.75">
+      <c r="B29" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="F29" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="J29" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="23"/>
+      <c r="M29" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="23"/>
     </row>
     <row r="31" ht="14.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="M28:N28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1948,12 +2260,12 @@
   </cols>
   <sheetData>
     <row r="2" ht="23.25">
-      <c r="F2" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="F2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="6" ht="14.25">
       <c r="B6" s="19"/>
@@ -2035,33 +2347,51 @@
     </row>
     <row r="28" ht="21">
       <c r="B28" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C28" s="22"/>
       <c r="F28" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G28" s="22"/>
       <c r="K28" s="22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
     </row>
+    <row r="29" ht="18.75">
+      <c r="B29" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="F29" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="K29" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="23"/>
+    </row>
     <row r="31" ht="14.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="M28:N28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2081,12 +2411,12 @@
   </cols>
   <sheetData>
     <row r="2" ht="23.25">
-      <c r="F2" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="F2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="6" ht="14.25">
       <c r="B6" s="19"/>
@@ -2168,32 +2498,50 @@
     </row>
     <row r="28" ht="21">
       <c r="B28" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C28" s="22"/>
       <c r="F28" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G28" s="22"/>
       <c r="K28" s="22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
     </row>
+    <row r="29" ht="18.75">
+      <c r="B29" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="F29" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="K29" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="23"/>
+    </row>
     <row r="31" ht="14.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="M28:N28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>